--- a/src/locale/i18n.xlsx
+++ b/src/locale/i18n.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mebugs\siteol\smart-ui\src\locale\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lang" sheetId="4" r:id="rId1"/>
     <sheet name="base" sheetId="1" r:id="rId2"/>
     <sheet name="plat" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="440">
   <si>
     <t>支持的语言列表（实际表格，按照顺序列填写文言）</t>
   </si>
@@ -775,10 +780,10 @@
     <t>response.code.sc</t>
   </si>
   <si>
-    <t>请输入响应码支持模糊查询</t>
-  </si>
-  <si>
-    <t>Please enter the response code to support fuzzy query</t>
+    <t>请输入响应码，支持模糊</t>
+  </si>
+  <si>
+    <t>Please enter the response code, fuzzy is supported</t>
   </si>
   <si>
     <t>response.zhCn</t>
@@ -787,7 +792,7 @@
     <t>汉语文言</t>
   </si>
   <si>
-    <t>Chinese classical Chinese</t>
+    <t>Chinese Classical Chinese</t>
   </si>
   <si>
     <t>response.zhCn.place</t>
@@ -805,7 +810,7 @@
     <t>英语文言</t>
   </si>
   <si>
-    <t>English classical Chinese</t>
+    <t>English Classical Chinese</t>
   </si>
   <si>
     <t>response.enUs.place</t>
@@ -823,7 +828,7 @@
     <t>响应备注</t>
   </si>
   <si>
-    <t>Response remarks</t>
+    <t>Response Remarks</t>
   </si>
   <si>
     <t>response.remark.place</t>
@@ -832,7 +837,7 @@
     <t>请输入响应备注信息</t>
   </si>
   <si>
-    <t>Please enter the response remarks</t>
+    <t>Please enter the response remark information</t>
   </si>
   <si>
     <t>response.del.tip</t>
@@ -841,7 +846,7 @@
     <t>锁定后响应码不可见但该响应码序号依旧保持占用！是否确认锁定？</t>
   </si>
   <si>
-    <t>After locking, the response code is invisible but the response code serial number remains occupied! Confirm the lock?</t>
+    <t>After locking, the response code is invisible but the response code number remains occupied! Confirm the lock?</t>
   </si>
   <si>
     <t>router.add</t>
@@ -892,10 +897,10 @@
     <t>router.url.sc</t>
   </si>
   <si>
-    <t>请输入接口地址支持模糊查询</t>
-  </si>
-  <si>
-    <t>Please enter the interface address. Fuzzy query is supported.</t>
+    <t>请输入接口地址，支持模糊</t>
+  </si>
+  <si>
+    <t>Please enter the interface address, support fuzzy</t>
   </si>
   <si>
     <t>router.url.format</t>
@@ -904,7 +909,7 @@
     <t>请输入合法的URL数据</t>
   </si>
   <si>
-    <t>Please enter a valid URL data.</t>
+    <t>Please enter a valid URL data</t>
   </si>
   <si>
     <t>router.url.place</t>
@@ -913,24 +918,18 @@
     <t>请输入URL需要以/开头例：/user/add</t>
   </si>
   <si>
-    <t>Please enter the URL. It must start with /. Example: /user/add</t>
+    <t>Please enter the URL, which must start with / Example: /user/add</t>
   </si>
   <si>
     <t>router.type</t>
   </si>
   <si>
-    <t>白名单路由</t>
-  </si>
-  <si>
     <t>Whitelist route</t>
   </si>
   <si>
     <t>router.type.tips</t>
   </si>
   <si>
-    <t>启用白名单路由则表示该路由无需授权即可访问</t>
-  </si>
-  <si>
     <t>Enabling whitelist route means that the route can be accessed without authorization</t>
   </si>
   <si>
@@ -946,19 +945,19 @@
     <t>router.name.sc</t>
   </si>
   <si>
-    <t>请输入路由名称支持模糊查询</t>
-  </si>
-  <si>
-    <t>Please enter the route name. Fuzzy query is supported.</t>
+    <t>请输入路由名称，支持模糊</t>
+  </si>
+  <si>
+    <t>Please enter the route name, support fuzzy</t>
   </si>
   <si>
     <t>router.name.place</t>
   </si>
   <si>
-    <t>请输入路由名称全局唯一</t>
-  </si>
-  <si>
-    <t>Please enter the route name. It is globally unique</t>
+    <t>请输入路由名称，全局唯一</t>
+  </si>
+  <si>
+    <t>Please enter the route name, which is globally unique</t>
   </si>
   <si>
     <t>router.logInDb</t>
@@ -1012,18 +1011,12 @@
     <t>请求报文中需要脱敏+Hash存储的字段该配置对入库和日志均生效</t>
   </si>
   <si>
-    <t>Fields in the request message that need to be desensitized + Hash storage. This configuration is effective for storage and log</t>
+    <t>Fields in the request message that need to be desensitized + Hash stored. This configuration is effective for both storage and log</t>
   </si>
   <si>
     <t>router.reqLogSecure.place</t>
   </si>
   <si>
-    <t>请输入字段名英文逗号分隔请勿输入回车例：namephone</t>
-  </si>
-  <si>
-    <t>Please enter the field name separated by commas in English. Do not enter the return key. Example: namephone</t>
-  </si>
-  <si>
     <t>router.resLogPrint</t>
   </si>
   <si>
@@ -1057,7 +1050,7 @@
     <t>响应报文中需要脱敏+Hash存储的字段该配置对入库和日志均生效</t>
   </si>
   <si>
-    <t>Fields in the response message that need to be desensitized + Hash storage. This configuration is effective for storage and log</t>
+    <t>Fields in the response message that need to be desensitized + Hash stored. This configuration is effective for both storage and log</t>
   </si>
   <si>
     <t>router.resLogSecure.place</t>
@@ -1078,16 +1071,16 @@
     <t>请输入路由备注信息</t>
   </si>
   <si>
-    <t>Please enter the route notes information</t>
+    <t>Please enter the route notes</t>
   </si>
   <si>
     <t>router.del.tip</t>
   </si>
   <si>
-    <t>删除路由后系统将拒绝该接口访问数据无法恢复是否确认删除改路由？</t>
-  </si>
-  <si>
-    <t>After deleting the route, the system will deny access to the interface. Data cannot be restored. Do you confirm to delete the route?</t>
+    <t>删除路由后系统将拒绝该接口访问，数据无法恢复，是否确认删除？</t>
+  </si>
+  <si>
+    <t>After deleting the route, the system will deny access to the interface, and the data cannot be restored. Do you confirm the deletion?</t>
   </si>
   <si>
     <t>permission.add.sub</t>
@@ -1096,7 +1089,7 @@
     <t>创建权限子集</t>
   </si>
   <si>
-    <t>Create permission subset</t>
+    <t>Create a permission subset</t>
   </si>
   <si>
     <t>permission.get</t>
@@ -1123,7 +1116,7 @@
     <t>同级权限排序</t>
   </si>
   <si>
-    <t>Permission sorting at the same level</t>
+    <t>Permission sorting for the same level</t>
   </si>
   <si>
     <t>permission.level</t>
@@ -1147,19 +1140,19 @@
     <t>permission.name.sc</t>
   </si>
   <si>
-    <t>请输入权限名称支持模糊</t>
-  </si>
-  <si>
-    <t>Please enter the permission name. Fuzzy is supported</t>
+    <t>请输入权限名称，支持模糊</t>
+  </si>
+  <si>
+    <t>Please enter the permission name, fuzzy is supported</t>
   </si>
   <si>
     <t>permission.name.place</t>
   </si>
   <si>
-    <t>请输入权限名称全局唯一</t>
-  </si>
-  <si>
-    <t>Please enter the permission name. Globally unique</t>
+    <t>请输入权限名称，全局唯一</t>
+  </si>
+  <si>
+    <t>Please enter the permission name, globally unique</t>
   </si>
   <si>
     <t>permission.alias</t>
@@ -1174,10 +1167,10 @@
     <t>permission.alias.place</t>
   </si>
   <si>
-    <t>请输入权限别名全局唯一</t>
-  </si>
-  <si>
-    <t>Please enter the permission alias. Globally unique</t>
+    <t>请输入权限别名，全局唯一</t>
+  </si>
+  <si>
+    <t>Please enter the permission alias, globally unique</t>
   </si>
   <si>
     <t>permission.static</t>
@@ -1219,23 +1212,155 @@
     <t>permission.del.tip</t>
   </si>
   <si>
-    <t>删除权限后相关访问将被拒绝数据无法恢复是否确认删除改权限？</t>
-  </si>
-  <si>
-    <t>After deleting a permission, the relevant access will be denied and the data cannot be recovered. Are you sure to delete the changed permission?</t>
+    <t>删除权限后相关访问将被拒绝，数据无法恢复，是否确认删除？</t>
+  </si>
+  <si>
+    <t>After deleting the permission, the relevant access will be denied and the data cannot be restored. Do you confirm the deletion?</t>
+  </si>
+  <si>
+    <t>role.add</t>
+  </si>
+  <si>
+    <t>创建角色</t>
+  </si>
+  <si>
+    <t>Create a role</t>
+  </si>
+  <si>
+    <t>role.add.sub</t>
+  </si>
+  <si>
+    <t>创建新的角色</t>
+  </si>
+  <si>
+    <t>Create a new role</t>
+  </si>
+  <si>
+    <t>role.get</t>
+  </si>
+  <si>
+    <t>查询角色</t>
+  </si>
+  <si>
+    <t>Query role</t>
+  </si>
+  <si>
+    <t>role.edit</t>
+  </si>
+  <si>
+    <t>编辑角色</t>
+  </si>
+  <si>
+    <t>Edit role</t>
+  </si>
+  <si>
+    <t>role.name</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>Role name</t>
+  </si>
+  <si>
+    <t>role.name.sc</t>
+  </si>
+  <si>
+    <t>请输入角色名称，支持模糊</t>
+  </si>
+  <si>
+    <t>Please enter the role name, fuzzy is supported</t>
+  </si>
+  <si>
+    <t>role.name.place</t>
+  </si>
+  <si>
+    <t>请输入角色名称，全局唯一</t>
+  </si>
+  <si>
+    <t>Please enter the role name, globally unique</t>
+  </si>
+  <si>
+    <t>role.permissionIds</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>Role permissions</t>
+  </si>
+  <si>
+    <t>role.permissionIds.tips</t>
+  </si>
+  <si>
+    <t>对于默认权限，即使没有选择也会默认赋予当前角色</t>
+  </si>
+  <si>
+    <t>For default permissions, the current role will be granted by default even if no selection is made</t>
+  </si>
+  <si>
+    <t>role.permissionIds.place</t>
+  </si>
+  <si>
+    <t>请在右侧权限树中勾选权限</t>
+  </si>
+  <si>
+    <t>Please check the permissions in the permission tree on the right</t>
+  </si>
+  <si>
+    <t>role.permissionIds.place.forGet</t>
+  </si>
+  <si>
+    <t>请在右侧查看角色具备的权限，包含默认权限</t>
+  </si>
+  <si>
+    <t>Please view the permissions that the role has on the right, including default permissions</t>
+  </si>
+  <si>
+    <t>role.remark</t>
+  </si>
+  <si>
+    <t>角色备注</t>
+  </si>
+  <si>
+    <t>Role notes</t>
+  </si>
+  <si>
+    <t>role.remark.place</t>
+  </si>
+  <si>
+    <t>请输入角色备注</t>
+  </si>
+  <si>
+    <t>Please enter the role notes</t>
+  </si>
+  <si>
+    <t>role.del.tip</t>
+  </si>
+  <si>
+    <t>删除角色后相关访问将被拒绝，数据无法恢复，是否确认删除？</t>
+  </si>
+  <si>
+    <t>After deleting the role, the relevant access will be denied and the data cannot be restored. Do you confirm the deletion?</t>
+  </si>
+  <si>
+    <t>请输入字段名英文逗号分隔请勿输入回车例：name,phone</t>
+  </si>
+  <si>
+    <t>Please enter the field name in English, separated by commas. Do not enter the return. Example: name,phone</t>
+  </si>
+  <si>
+    <t>路由类型</t>
+  </si>
+  <si>
+    <t>白名单路由则表示无需授权均可访问</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,346 +1379,16 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1616,251 +1411,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1878,61 +1431,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2182,63 +1691,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:1">
+    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:1">
+    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:1">
+    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="37.375" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:3">
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2249,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2260,7 +1766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:3">
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +1777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:3">
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2282,7 +1788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:3">
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +1799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:3">
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2304,7 +1810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:3">
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2315,7 +1821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:3">
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +1832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:3">
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2337,7 +1843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:3">
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2348,7 +1854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:3">
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -2359,7 +1865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:3">
+    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -2370,7 +1876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:3">
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2381,7 +1887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:3">
+    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2392,7 +1898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="1:3">
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -2403,7 +1909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="1:3">
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2414,7 +1920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="1:3">
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -2425,7 +1931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:3">
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -2436,7 +1942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="1:3">
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -2447,7 +1953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" ht="17.25" spans="1:3">
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -2458,7 +1964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" ht="17.25" spans="1:3">
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -2469,7 +1975,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" ht="17.25" spans="1:3">
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -2480,7 +1986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" ht="17.25" spans="1:3">
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
@@ -2491,7 +1997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="17.25" spans="1:3">
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
@@ -2502,7 +2008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" ht="17.25" spans="1:3">
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -2513,7 +2019,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" ht="17.25" spans="1:3">
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -2524,7 +2030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" ht="17.25" spans="1:3">
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -2535,7 +2041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" ht="17.25" spans="1:3">
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -2546,7 +2052,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="1:3">
+    <row r="29" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
@@ -2557,7 +2063,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="1:3">
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>88</v>
       </c>
@@ -2568,7 +2074,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" ht="17.25" spans="1:3">
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -2579,7 +2085,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" ht="17.25" spans="1:3">
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
@@ -2590,7 +2096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" ht="17.25" spans="1:3">
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>97</v>
       </c>
@@ -2601,7 +2107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" ht="17.25" spans="1:3">
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>100</v>
       </c>
@@ -2612,7 +2118,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="1:3">
+    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -2623,7 +2129,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="1:3">
+    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -2634,7 +2140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" ht="17.25" spans="1:3">
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2648,29 +2154,26 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="89.875" customWidth="1"/>
     <col min="3" max="3" width="173.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:3">
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2681,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>112</v>
       </c>
@@ -2692,7 +2195,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:3">
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
@@ -2703,7 +2206,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:3">
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>118</v>
       </c>
@@ -2714,7 +2217,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:3">
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
@@ -2725,7 +2228,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:3">
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -2736,7 +2239,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:3">
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -2747,7 +2250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:3">
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>130</v>
       </c>
@@ -2758,7 +2261,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:3">
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>133</v>
       </c>
@@ -2769,7 +2272,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:3">
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>136</v>
       </c>
@@ -2780,7 +2283,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:3">
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>139</v>
       </c>
@@ -2791,7 +2294,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:3">
+    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>142</v>
       </c>
@@ -2802,7 +2305,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:3">
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>145</v>
       </c>
@@ -2813,7 +2316,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:3">
+    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>148</v>
       </c>
@@ -2824,7 +2327,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="1:3">
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -2835,7 +2338,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="1:3">
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>154</v>
       </c>
@@ -2846,7 +2349,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="1:3">
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>157</v>
       </c>
@@ -2857,7 +2360,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:3">
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2868,7 +2371,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="1:3">
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>163</v>
       </c>
@@ -2879,7 +2382,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" ht="17.25" spans="1:3">
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>166</v>
       </c>
@@ -2890,7 +2393,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" ht="17.25" spans="1:3">
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>169</v>
       </c>
@@ -2901,7 +2404,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" ht="17.25" spans="1:3">
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>172</v>
       </c>
@@ -2912,7 +2415,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" ht="17.25" spans="1:3">
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>175</v>
       </c>
@@ -2923,7 +2426,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" ht="17.25" spans="1:3">
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>178</v>
       </c>
@@ -2934,7 +2437,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" ht="17.25" spans="1:3">
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>181</v>
       </c>
@@ -2945,7 +2448,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" ht="17.25" spans="1:3">
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>184</v>
       </c>
@@ -2956,7 +2459,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" ht="17.25" spans="1:3">
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>187</v>
       </c>
@@ -2967,7 +2470,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" ht="17.25" spans="1:3">
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>190</v>
       </c>
@@ -2978,7 +2481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="1:3">
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>193</v>
       </c>
@@ -2989,7 +2492,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="1:3">
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>196</v>
       </c>
@@ -3000,7 +2503,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" ht="17.25" spans="1:3">
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>199</v>
       </c>
@@ -3011,7 +2514,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" ht="17.25" spans="1:3">
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>202</v>
       </c>
@@ -3022,7 +2525,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" ht="17.25" spans="1:3">
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>205</v>
       </c>
@@ -3033,7 +2536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" ht="17.25" spans="1:3">
+    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>208</v>
       </c>
@@ -3044,7 +2547,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="1:3">
+    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>211</v>
       </c>
@@ -3055,7 +2558,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="1:3">
+    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>214</v>
       </c>
@@ -3066,7 +2569,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" ht="17.25" spans="1:3">
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>217</v>
       </c>
@@ -3077,7 +2580,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" ht="17.25" spans="1:3">
+    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>220</v>
       </c>
@@ -3088,7 +2591,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" ht="17.25" spans="1:3">
+    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>223</v>
       </c>
@@ -3099,7 +2602,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" ht="17.25" spans="1:3">
+    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>226</v>
       </c>
@@ -3110,7 +2613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" ht="17.25" spans="1:3">
+    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>229</v>
       </c>
@@ -3121,7 +2624,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" ht="17.25" spans="1:3">
+    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>232</v>
       </c>
@@ -3132,7 +2635,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" ht="17.25" spans="1:3">
+    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>235</v>
       </c>
@@ -3143,7 +2646,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" ht="17.25" spans="1:3">
+    <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>238</v>
       </c>
@@ -3154,7 +2657,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" ht="17.25" spans="1:3">
+    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>241</v>
       </c>
@@ -3165,7 +2668,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" ht="17.25" spans="1:3">
+    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>244</v>
       </c>
@@ -3176,7 +2679,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="47" ht="17.25" spans="1:3">
+    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>247</v>
       </c>
@@ -3187,7 +2690,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" ht="17.25" spans="1:3">
+    <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>250</v>
       </c>
@@ -3198,7 +2701,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" ht="17.25" spans="1:3">
+    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>253</v>
       </c>
@@ -3209,7 +2712,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" ht="17.25" spans="1:3">
+    <row r="50" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>256</v>
       </c>
@@ -3220,7 +2723,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" ht="17.25" spans="1:3">
+    <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>259</v>
       </c>
@@ -3231,7 +2734,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" ht="17.25" spans="1:3">
+    <row r="52" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>262</v>
       </c>
@@ -3242,7 +2745,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" ht="17.25" spans="1:3">
+    <row r="53" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>265</v>
       </c>
@@ -3253,7 +2756,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="54" ht="17.25" spans="1:3">
+    <row r="54" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>268</v>
       </c>
@@ -3264,7 +2767,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" ht="17.25" spans="1:3">
+    <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>271</v>
       </c>
@@ -3275,7 +2778,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" ht="17.25" spans="1:3">
+    <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>274</v>
       </c>
@@ -3286,7 +2789,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="57" ht="17.25" spans="1:3">
+    <row r="57" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>277</v>
       </c>
@@ -3297,7 +2800,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="58" ht="17.25" spans="1:3">
+    <row r="58" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>280</v>
       </c>
@@ -3308,7 +2811,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="59" ht="17.25" spans="1:3">
+    <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>283</v>
       </c>
@@ -3319,7 +2822,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" ht="17.25" spans="1:3">
+    <row r="60" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>286</v>
       </c>
@@ -3330,7 +2833,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" ht="17.25" spans="1:3">
+    <row r="61" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>289</v>
       </c>
@@ -3341,7 +2844,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" ht="17.25" spans="1:3">
+    <row r="62" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>292</v>
       </c>
@@ -3352,394 +2855,547 @@
         <v>294</v>
       </c>
     </row>
-    <row r="63" ht="17.25" spans="1:3">
+    <row r="63" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="64" ht="17.25" spans="1:3">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="65" ht="17.25" spans="1:3">
-      <c r="A65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="66" ht="17.25" spans="1:3">
-      <c r="A66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="67" ht="17.25" spans="1:3">
-      <c r="A67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="68" ht="17.25" spans="1:3">
-      <c r="A68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="69" ht="17.25" spans="1:3">
-      <c r="A69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="70" ht="17.25" spans="1:3">
-      <c r="A70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="71" ht="17.25" spans="1:3">
-      <c r="A71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="72" ht="17.25" spans="1:3">
-      <c r="A72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="73" ht="17.25" spans="1:3">
-      <c r="A73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="74" ht="17.25" spans="1:3">
-      <c r="A74" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C74" s="1" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="75" ht="17.25" spans="1:3">
-      <c r="A75" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C75" s="1" t="s">
+    </row>
+    <row r="77" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="76" ht="17.25" spans="1:3">
-      <c r="A76" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C76" s="1" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="77" ht="17.25" spans="1:3">
-      <c r="A77" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="1" t="s">
+    </row>
+    <row r="79" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="78" ht="17.25" spans="1:3">
-      <c r="A78" s="2" t="s">
+      <c r="B79" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="79" ht="17.25" spans="1:3">
-      <c r="A79" s="2" t="s">
+    <row r="81" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="80" ht="17.25" spans="1:3">
-      <c r="A80" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C80" s="1" t="s">
+    </row>
+    <row r="82" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="81" ht="17.25" spans="1:3">
-      <c r="A81" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C81" s="1" t="s">
+    </row>
+    <row r="83" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="82" ht="17.25" spans="1:3">
-      <c r="A82" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C82" s="1" t="s">
+    </row>
+    <row r="84" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="83" ht="17.25" spans="1:3">
-      <c r="A83" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C83" s="1" t="s">
+    </row>
+    <row r="85" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="84" ht="17.25" spans="1:3">
-      <c r="A84" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C84" s="1" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="85" ht="17.25" spans="1:3">
-      <c r="A85" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C85" s="1" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="86" ht="17.25" spans="1:3">
-      <c r="A86" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C86" s="1" t="s">
+    </row>
+    <row r="88" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="87" ht="17.25" spans="1:3">
-      <c r="A87" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C87" s="1" t="s">
+    </row>
+    <row r="89" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="88" ht="17.25" spans="1:3">
-      <c r="A88" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C88" s="1" t="s">
+    </row>
+    <row r="90" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="89" ht="17.25" spans="1:3">
-      <c r="A89" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C89" s="1" t="s">
+    </row>
+    <row r="91" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="90" ht="17.25" spans="1:3">
-      <c r="A90" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C90" s="1" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="91" ht="17.25" spans="1:3">
-      <c r="A91" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C91" s="1" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="92" ht="17.25" spans="1:3">
-      <c r="A92" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C92" s="1" t="s">
+    </row>
+    <row r="94" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="93" ht="17.25" spans="1:3">
-      <c r="A93" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C93" s="1" t="s">
+    </row>
+    <row r="95" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="94" ht="17.25" spans="1:3">
-      <c r="A94" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C94" s="1" t="s">
+    </row>
+    <row r="96" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="95" ht="17.25" spans="1:3">
-      <c r="A95" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C95" s="1" t="s">
+    </row>
+    <row r="97" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="96" ht="17.25" spans="1:3">
-      <c r="A96" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C96" s="1" t="s">
+    </row>
+    <row r="98" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="97" ht="17.25" spans="1:3">
-      <c r="A97" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C97" s="1" t="s">
+    </row>
+    <row r="99" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
         <v>397</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/locale/i18n.xlsx
+++ b/src/locale/i18n.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lang" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="547">
   <si>
     <t>支持的语言列表（实际表格，按照顺序列填写文言）</t>
   </si>
@@ -1209,9 +1209,6 @@
     <t>Edit permission route set</t>
   </si>
   <si>
-    <t>permission.del.tip</t>
-  </si>
-  <si>
     <t>删除权限后相关访问将被拒绝，数据无法恢复，是否确认删除？</t>
   </si>
   <si>
@@ -1335,9 +1332,6 @@
     <t>Please enter the role notes</t>
   </si>
   <si>
-    <t>role.del.tip</t>
-  </si>
-  <si>
     <t>删除角色后相关访问将被拒绝，数据无法恢复，是否确认删除？</t>
   </si>
   <si>
@@ -1354,13 +1348,340 @@
   </si>
   <si>
     <t>白名单路由则表示无需授权均可访问</t>
+  </si>
+  <si>
+    <t>permission.del.tips</t>
+  </si>
+  <si>
+    <t>role.del.tips</t>
+  </si>
+  <si>
+    <t>dept.add.sub</t>
+  </si>
+  <si>
+    <t>dept.get</t>
+  </si>
+  <si>
+    <t>dept.edit</t>
+  </si>
+  <si>
+    <t>dept.name</t>
+  </si>
+  <si>
+    <t>dept.del.tips</t>
+  </si>
+  <si>
+    <t>dept.name.place</t>
+  </si>
+  <si>
+    <t>dept.permissionType</t>
+  </si>
+  <si>
+    <t>dept.permissionType.tips</t>
+  </si>
+  <si>
+    <t>dept.to</t>
+  </si>
+  <si>
+    <t>dept.sort</t>
+  </si>
+  <si>
+    <t>dept.toId</t>
+  </si>
+  <si>
+    <t>dept.toType</t>
+  </si>
+  <si>
+    <t>dept.toType.tips</t>
+  </si>
+  <si>
+    <t>dept.name.sc</t>
+  </si>
+  <si>
+    <t>创建子部门</t>
+  </si>
+  <si>
+    <t>查看部门</t>
+  </si>
+  <si>
+    <t>编辑部门</t>
+  </si>
+  <si>
+    <t>合并部门</t>
+  </si>
+  <si>
+    <t>目标部门</t>
+  </si>
+  <si>
+    <t>合并类型</t>
+  </si>
+  <si>
+    <t>合入：作为子部门加入目标部门；并入：成员和子部门加入目标部门。</t>
+  </si>
+  <si>
+    <t>同级部门排序</t>
+  </si>
+  <si>
+    <t>部门无账号以及子部门方可删除，您可通过部门合并转移相关数据。删除部门后，数据无法恢复，是否确认删除？</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+  </si>
+  <si>
+    <t>请输入部门名称，全局唯一</t>
+  </si>
+  <si>
+    <t>请输入部门名称，支持模糊</t>
+  </si>
+  <si>
+    <t>数据权限类型</t>
+  </si>
+  <si>
+    <t>用于限制部门账号可以访问的数据范围，允许账号自定义</t>
+  </si>
+  <si>
+    <t>dept.accounts.isLeader</t>
+  </si>
+  <si>
+    <t>dept.accounts.unLeader</t>
+  </si>
+  <si>
+    <t>部门领导</t>
+  </si>
+  <si>
+    <t>部门成员</t>
+  </si>
+  <si>
+    <t>account.account</t>
+  </si>
+  <si>
+    <t>account.account.tips</t>
+  </si>
+  <si>
+    <t>account.account.place</t>
+  </si>
+  <si>
+    <t>account.permissionType</t>
+  </si>
+  <si>
+    <t>account.permissionType.tips</t>
+  </si>
+  <si>
+    <t>account.deptId</t>
+  </si>
+  <si>
+    <t>account.isLeader</t>
+  </si>
+  <si>
+    <t>account.status</t>
+  </si>
+  <si>
+    <t>account.name</t>
+  </si>
+  <si>
+    <t>account.name.place</t>
+  </si>
+  <si>
+    <t>account.roleIds</t>
+  </si>
+  <si>
+    <t>account.account.sc</t>
+  </si>
+  <si>
+    <t>account.name.sc</t>
+  </si>
+  <si>
+    <t>account.add</t>
+  </si>
+  <si>
+    <t>account.add.sub</t>
+  </si>
+  <si>
+    <t>account.get</t>
+  </si>
+  <si>
+    <t>account.edit</t>
+  </si>
+  <si>
+    <t>account.resetPwd</t>
+  </si>
+  <si>
+    <t>account.del.tips</t>
+  </si>
+  <si>
+    <t>account.resetPwd.tips</t>
+  </si>
+  <si>
+    <t>登陆账号</t>
+  </si>
+  <si>
+    <t>请输入登陆账号，全局唯一</t>
+  </si>
+  <si>
+    <t>请输入登陆账号，支持模糊</t>
+  </si>
+  <si>
+    <t>账号数据权限</t>
+  </si>
+  <si>
+    <t>用于限制登陆账号可以访问的数据范围，继承部门表示使用部门的配置</t>
+  </si>
+  <si>
+    <t>所属部门</t>
+  </si>
+  <si>
+    <t>部门职位</t>
+  </si>
+  <si>
+    <t>账号状态</t>
+  </si>
+  <si>
+    <t>个人姓名</t>
+  </si>
+  <si>
+    <t>请输入个人姓名，支持模糊</t>
+  </si>
+  <si>
+    <t>请输入个人姓名，全局唯一</t>
+  </si>
+  <si>
+    <t>绑定角色</t>
+  </si>
+  <si>
+    <t>创建账号</t>
+  </si>
+  <si>
+    <t>创建一个新账号</t>
+  </si>
+  <si>
+    <t>查看账号</t>
+  </si>
+  <si>
+    <t>编辑账号</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>密码将被重置为123456，并在登陆需要用户再次重设密码</t>
+  </si>
+  <si>
+    <t>创建账号默认密码为123456，初次登陆需要用户重设密码</t>
+  </si>
+  <si>
+    <t>删除账号后，无法再次登陆且数据无法恢复，是否确认删除？</t>
+  </si>
+  <si>
+    <t>Create subdepartment</t>
+  </si>
+  <si>
+    <t>View department</t>
+  </si>
+  <si>
+    <t>Editorial Department</t>
+  </si>
+  <si>
+    <t>Merge departments</t>
+  </si>
+  <si>
+    <t>target department</t>
+  </si>
+  <si>
+    <t>Merge type</t>
+  </si>
+  <si>
+    <t>Sort by departments at the same level</t>
+  </si>
+  <si>
+    <t>Departments can be deleted only if they have no accounts and sub-departments. You can transfer relevant data through department merging. After deleting a department, the data cannot be recovered. Do you want to confirm the deletion?</t>
+  </si>
+  <si>
+    <t>Department name</t>
+  </si>
+  <si>
+    <t>Please enter a department name, it is globally unique</t>
+  </si>
+  <si>
+    <t>Please enter the department name, fuzzy is supported</t>
+  </si>
+  <si>
+    <t>Data permission type</t>
+  </si>
+  <si>
+    <t>Used to limit the data range that department accounts can access and allow account customization</t>
+  </si>
+  <si>
+    <t>Department heads</t>
+  </si>
+  <si>
+    <t>Department members</t>
+  </si>
+  <si>
+    <t>Login account</t>
+  </si>
+  <si>
+    <t>The default password when creating an account is 123456. The user needs to reset the password when logging in for the first time.</t>
+  </si>
+  <si>
+    <t>Please enter your login account, blur is supported</t>
+  </si>
+  <si>
+    <t>Please enter your login account, it is globally unique</t>
+  </si>
+  <si>
+    <t>Account data permissions</t>
+  </si>
+  <si>
+    <t>Department / Occupation</t>
+  </si>
+  <si>
+    <t>Account status</t>
+  </si>
+  <si>
+    <t>personal name</t>
+  </si>
+  <si>
+    <t>Please enter your personal name, blur is supported</t>
+  </si>
+  <si>
+    <t>Please enter your personal name, it is globally unique</t>
+  </si>
+  <si>
+    <t>Bind role</t>
+  </si>
+  <si>
+    <t>Create an account</t>
+  </si>
+  <si>
+    <t>Create a new account</t>
+  </si>
+  <si>
+    <t>View account</t>
+  </si>
+  <si>
+    <t>Edit account</t>
+  </si>
+  <si>
+    <t>reset Password</t>
+  </si>
+  <si>
+    <t>The password will be reset to 123456 and the user will be required to reset the password again upon login.</t>
+  </si>
+  <si>
+    <t>After deleting your account, you cannot log in again and the data cannot be recovered. Do you want to confirm the deletion?</t>
+  </si>
+  <si>
+    <t>Used to limit the data range that the login account can access. Inheriting the department means using the department\'s configuration.</t>
+  </si>
+  <si>
+    <t>Fit: Join the target department as a sub-department; Merge: Members and sub-departments join the target department.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1377,6 +1698,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1417,7 +1744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1428,6 +1755,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1732,14 +2065,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="37.375" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
@@ -2141,7 +2474,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2159,17 +2492,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.875" customWidth="1"/>
-    <col min="2" max="2" width="89.875" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="173.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2860,7 +3193,7 @@
         <v>295</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>296</v>
@@ -2871,7 +3204,7 @@
         <v>297</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>298</v>
@@ -2981,10 +3314,10 @@
         <v>326</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
@@ -3036,10 +3369,10 @@
         <v>339</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
@@ -3231,171 +3564,567 @@
     </row>
     <row r="97" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A111" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>435</v>
+    </row>
+    <row r="112" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/locale/i18n.xlsx
+++ b/src/locale/i18n.xlsx
@@ -16,6 +16,10 @@
     <sheet name="base" sheetId="1" r:id="rId2"/>
     <sheet name="plat" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">plat!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="590">
   <si>
     <t>支持的语言列表（实际表格，按照顺序列填写文言）</t>
   </si>
@@ -93,15 +97,6 @@
     <t>Switch to light mode</t>
   </si>
   <si>
-    <t>base.logout.noauth</t>
-  </si>
-  <si>
-    <t>您当前尚未登陆或没有访问权限</t>
-  </si>
-  <si>
-    <t>You are not logged in or do not have access rights</t>
-  </si>
-  <si>
     <t>base.oper</t>
   </si>
   <si>
@@ -1647,9 +1642,6 @@
     <t>Please enter your personal name, it is globally unique</t>
   </si>
   <si>
-    <t>Bind role</t>
-  </si>
-  <si>
     <t>Create an account</t>
   </si>
   <si>
@@ -1675,6 +1667,147 @@
   </si>
   <si>
     <t>Fit: Join the target department as a sub-department; Merge: Members and sub-departments join the target department.</t>
+  </si>
+  <si>
+    <t>account.deptName</t>
+  </si>
+  <si>
+    <t>account.roleNames</t>
+  </si>
+  <si>
+    <t>Bind roles</t>
+  </si>
+  <si>
+    <t>base.tryReadLogin</t>
+  </si>
+  <si>
+    <t>正在检查您是否已登陆</t>
+  </si>
+  <si>
+    <t>base.tryReadLoginHave</t>
+  </si>
+  <si>
+    <t>您已登陆，即将前往首页</t>
+  </si>
+  <si>
+    <t>base.tryReadLoginNull</t>
+  </si>
+  <si>
+    <t>您尚未登陆，即将前往登陆</t>
+  </si>
+  <si>
+    <t>base.login.acc</t>
+  </si>
+  <si>
+    <t>请输入登陆账号</t>
+  </si>
+  <si>
+    <t>base.login.pwd</t>
+  </si>
+  <si>
+    <t>请输入登录密码</t>
+  </si>
+  <si>
+    <t>base.login.rem</t>
+  </si>
+  <si>
+    <t>记住登陆信息</t>
+  </si>
+  <si>
+    <t>button.login</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>base.reset</t>
+  </si>
+  <si>
+    <t>密码重置</t>
+  </si>
+  <si>
+    <t>base.reset.tips</t>
+  </si>
+  <si>
+    <t>首次登陆或90天未修改密码将要求重置密码</t>
+  </si>
+  <si>
+    <t>base.reset.pwd</t>
+  </si>
+  <si>
+    <t>请输入重置的密码</t>
+  </si>
+  <si>
+    <t>base.reset.pwdCfm</t>
+  </si>
+  <si>
+    <t>请再次输入重置的密码</t>
+  </si>
+  <si>
+    <t>Checking to see if you are logged in</t>
+  </si>
+  <si>
+    <t>You have logged in and are about to go to the homepage</t>
+  </si>
+  <si>
+    <t>You are not logged in yet, you are about to log in</t>
+  </si>
+  <si>
+    <t>Please enter your login account</t>
+  </si>
+  <si>
+    <t>Please enter your password</t>
+  </si>
+  <si>
+    <t>Remember login information</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Please enter reset password</t>
+  </si>
+  <si>
+    <t>Please re-enter the reset password</t>
+  </si>
+  <si>
+    <t>First time login or the password has not been changed for 90 days, need to reset.</t>
+  </si>
+  <si>
+    <t>您当前没有访问权限</t>
+  </si>
+  <si>
+    <t>您当前尚未登陆</t>
+  </si>
+  <si>
+    <t>You are not currently logged in</t>
+  </si>
+  <si>
+    <t>You currently do not have access</t>
+  </si>
+  <si>
+    <t>base.noauth</t>
+  </si>
+  <si>
+    <t>base.nologin</t>
+  </si>
+  <si>
+    <t>base.logout</t>
+  </si>
+  <si>
+    <t>base.logout.tips</t>
+  </si>
+  <si>
+    <t>退出登陆</t>
+  </si>
+  <si>
+    <t>是否确认退出当前登陆的账号？</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Are you sure to log out of the currently logged in account?</t>
   </si>
 </sst>
 </file>
@@ -2063,17 +2196,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2090,413 +2223,572 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>584</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>586</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>585</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>587</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>552</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>553</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>554</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>555</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>556</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>557</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
+      <c r="A9" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>578</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>583</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>579</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>560</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>561</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>564</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>565</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>566</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>567</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>562</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>563</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>546</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>547</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>548</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>549</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>550</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>551</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34.5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>558</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>559</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>91</v>
+      <c r="A31" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>94</v>
+      <c r="A32" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>111</v>
+    <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C49">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2519,1611 +2811,1638 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>469</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>489</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>471</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>490</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>480</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>491</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>470</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>507</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>482</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>501</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>483</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>502</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>130</v>
+        <v>487</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>508</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>133</v>
+        <v>474</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>494</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>136</v>
+        <v>543</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>494</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>139</v>
+        <v>485</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>484</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>503</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>475</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>495</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>148</v>
+        <v>477</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>150</v>
+        <v>497</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>478</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>499</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>154</v>
+        <v>481</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>498</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>157</v>
+        <v>472</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>492</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>159</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>160</v>
+        <v>473</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>162</v>
+        <v>493</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>486</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>505</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>166</v>
+        <v>488</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>506</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>168</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>169</v>
+        <v>479</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>171</v>
+        <v>500</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>172</v>
+        <v>544</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>500</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>175</v>
+        <v>476</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>496</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>178</v>
+        <v>465</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>467</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>180</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>181</v>
+        <v>466</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>182</v>
+        <v>468</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>183</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>184</v>
+        <v>437</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>188</v>
+        <v>459</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>189</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>190</v>
+        <v>439</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>191</v>
+        <v>453</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>192</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>193</v>
+        <v>438</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>194</v>
+        <v>452</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>195</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>440</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>460</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>198</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>199</v>
+        <v>442</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>461</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>202</v>
+        <v>450</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>203</v>
+        <v>462</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>204</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>205</v>
+        <v>443</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>463</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>207</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>208</v>
+        <v>444</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>209</v>
+        <v>464</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>210</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>211</v>
+        <v>446</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>212</v>
+        <v>458</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>213</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>214</v>
+        <v>445</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>215</v>
+        <v>454</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>216</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>219</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>220</v>
+        <v>448</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>221</v>
+        <v>456</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>222</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>223</v>
+        <v>449</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>225</v>
+        <v>457</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>251</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>263</v>
+        <v>152</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>285</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>291</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>292</v>
+        <v>435</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>299</v>
+        <v>358</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>307</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>434</v>
+        <v>110</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>435</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>327</v>
+        <v>220</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>331</v>
+        <v>224</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>332</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>434</v>
+        <v>245</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>435</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>340</v>
+        <v>238</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>342</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>346</v>
+        <v>229</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>347</v>
+        <v>230</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>348</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>353</v>
+        <v>257</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>356</v>
+        <v>227</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>357</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>364</v>
+        <v>232</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>380</v>
+      <c r="A93" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>415</v>
+        <v>269</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>416</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>417</v>
+        <v>271</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>419</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>421</v>
+        <v>344</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>423</v>
+        <v>277</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>424</v>
+        <v>278</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>425</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>426</v>
+        <v>274</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>427</v>
+        <v>275</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>428</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>429</v>
+        <v>305</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>430</v>
+        <v>306</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>431</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A111" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>432</v>
+      <c r="A111" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>433</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>440</v>
+        <v>296</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>454</v>
+        <v>297</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>512</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>441</v>
+        <v>302</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>455</v>
+        <v>303</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>513</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>442</v>
+        <v>299</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>514</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>448</v>
+        <v>337</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>457</v>
+        <v>338</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>515</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>458</v>
+        <v>341</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>516</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>451</v>
+        <v>311</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>459</v>
+        <v>312</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>517</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
-        <v>452</v>
+        <v>314</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>546</v>
+        <v>315</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>449</v>
+        <v>317</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>461</v>
+        <v>318</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>518</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>444</v>
+        <v>323</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>519</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>443</v>
+        <v>320</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>463</v>
+        <v>321</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>520</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>445</v>
+        <v>324</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>464</v>
+        <v>325</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>521</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>465</v>
+        <v>328</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>522</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>466</v>
+        <v>331</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>523</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>447</v>
+        <v>336</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>524</v>
+        <v>432</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>468</v>
+        <v>333</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>470</v>
+        <v>334</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>525</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>469</v>
+        <v>292</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>526</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>472</v>
+        <v>294</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>492</v>
+        <v>434</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>527</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>473</v>
+        <v>280</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>510</v>
+        <v>281</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>528</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>483</v>
+        <v>286</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>494</v>
+        <v>287</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>529</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>474</v>
+        <v>289</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>493</v>
+        <v>290</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>530</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>475</v>
+        <v>283</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>495</v>
+        <v>284</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>531</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
-        <v>476</v>
+        <v>175</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>545</v>
+        <v>176</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>477</v>
+        <v>172</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>497</v>
+        <v>173</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>478</v>
+        <v>199</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>498</v>
+        <v>200</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>532</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>479</v>
+        <v>202</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>499</v>
+        <v>203</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>533</v>
+        <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>480</v>
+        <v>193</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>500</v>
+        <v>194</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>534</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
-        <v>484</v>
+        <v>187</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>501</v>
+        <v>188</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>535</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>481</v>
+        <v>190</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>502</v>
+        <v>191</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>536</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>482</v>
+        <v>205</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>503</v>
+        <v>206</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>537</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>485</v>
+        <v>196</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>504</v>
+        <v>197</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>538</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>486</v>
+        <v>184</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>505</v>
+        <v>185</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>539</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>487</v>
+        <v>178</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>540</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>488</v>
+        <v>181</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>507</v>
+        <v>182</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>541</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
-        <v>489</v>
+        <v>214</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>508</v>
+        <v>215</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>542</v>
+        <v>216</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>491</v>
+        <v>208</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>509</v>
+        <v>209</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>543</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>490</v>
+        <v>211</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>511</v>
+        <v>212</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>544</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C149">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
